--- a/file.xlsx
+++ b/file.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="phongtt35" r:id="rId3" sheetId="1"/>
-    <sheet name="quanvdmph19717" r:id="rId4" sheetId="2"/>
-    <sheet name="Tổng Quan" r:id="rId5" sheetId="3"/>
+    <sheet name="abc123" r:id="rId4" sheetId="2"/>
+    <sheet name="quanvdmph19717" r:id="rId5" sheetId="3"/>
+    <sheet name="Tổng Quan" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Người Thực Hiện</t>
   </si>
@@ -46,16 +47,61 @@
     <t>2023-11-06 / 16:13:50</t>
   </si>
   <si>
+    <t>2023-11-06 / 19:24:22</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:52:20</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:53:42</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:54:07</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:54:43</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:56:26</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:01:37</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:02:21</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:03:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cập nhật thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:04:37</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:04:54</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:54:29</t>
+  </si>
+  <si>
     <t>quanvdmph19717</t>
   </si>
   <si>
     <t>2023-11-06 / 16:12:43</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cập nhật thông tin cá nhân</t>
-  </si>
-  <si>
     <t>2023-11-06 / 16:12:52</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:52:11</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 12:54:38</t>
   </si>
   <si>
     <t>Nhân Viên</t>
@@ -158,9 +204,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -182,35 +411,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -218,9 +425,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -244,24 +451,46 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -269,9 +498,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -286,19 +515,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -306,33 +535,50 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Người Thực Hiện</t>
   </si>
@@ -83,6 +83,21 @@
     <t>2023-11-07 / 13:04:54</t>
   </si>
   <si>
+    <t>2023-11-08 / 10:02:27</t>
+  </si>
+  <si>
+    <t>2023-11-08 / 13:55:27</t>
+  </si>
+  <si>
+    <t>2023-11-08 / 14:20:40</t>
+  </si>
+  <si>
+    <t>2023-11-08 / 14:48:43</t>
+  </si>
+  <si>
+    <t>2023-11-08 / 14:51:25</t>
+  </si>
+  <si>
     <t>abc123</t>
   </si>
   <si>
@@ -102,6 +117,12 @@
   </si>
   <si>
     <t>2023-11-07 / 12:54:38</t>
+  </si>
+  <si>
+    <t>2023-11-07 / 13:07:26</t>
+  </si>
+  <si>
+    <t>2023-11-08 / 13:50:06</t>
   </si>
   <si>
     <t>Nhân Viên</t>
@@ -204,7 +225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -378,6 +399,61 @@
       </c>
       <c r="C15" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -411,13 +487,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -427,7 +503,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,46 +527,68 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -515,19 +613,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -535,30 +633,30 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
@@ -566,19 +664,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
